--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.64211759095301</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.5298692899008431</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.121416946528233</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.3367949059522933</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.03617404199618</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>4.998602867911782</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.2569384304019269</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04487644048399081</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.6591431417536935</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>13.08446810661146</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.7095188395570421</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1611014700843928</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2599005274089113</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.583864174784634</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +956,18 @@
       <c r="H14" t="n">
         <v>5.646190787623574</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.4066391886530542</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1008882814258805</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3031090771618764</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.426911848121309</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -966,10 +998,18 @@
       <c r="H15" t="n">
         <v>7.59132668703202</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>-0.4372884950901768</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.08446814508101096</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.02830387734468846</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.565151079672559</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1000,10 +1040,18 @@
       <c r="H16" t="n">
         <v>6.667330437681408</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>-0.4292028699684391</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.07071700756888885</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1210231726677569</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.870213651501798</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1034,10 +1082,18 @@
       <c r="H17" t="n">
         <v>19.79321383901967</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>-0.7069195875716421</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1189669907999237</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2629798367475658</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.073549511692321</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -1124,10 +1124,18 @@
       <c r="H18" t="n">
         <v>22.22244899502702</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.6067089621107076</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1224968750237004</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.006238849779163275</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.054960549259019</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -654,19 +654,19 @@
         <v>0.3452054794520548</v>
       </c>
       <c r="D6" t="n">
-        <v>119778.548484486</v>
+        <v>119765.1405966122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005816460953392802</v>
+        <v>0.005109743552133421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.217170748343345</v>
+        <v>0.2210963616989756</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.224537219603935</v>
+        <v>-1.383155733590929</v>
       </c>
       <c r="H6" t="n">
-        <v>10.29658417350321</v>
+        <v>11.97557868494806</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7671232876712328</v>
       </c>
       <c r="D8" t="n">
-        <v>121563.2450110858</v>
+        <v>121559.4643682876</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02214212756376611</v>
+        <v>-0.02206597877392203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2072298430317633</v>
+        <v>0.2060234106399831</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.246291296472136</v>
+        <v>-1.16871571259097</v>
       </c>
       <c r="H8" t="n">
-        <v>9.753181081931203</v>
+        <v>8.753479828842471</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8438356164383561</v>
       </c>
       <c r="D9" t="n">
-        <v>123285.1004874019</v>
+        <v>123286.2422882786</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05081613929414854</v>
+        <v>-0.05094705112303217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3169381992816377</v>
+        <v>0.318136351082018</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.573413977323869</v>
+        <v>-1.603784022362666</v>
       </c>
       <c r="H9" t="n">
-        <v>10.3770169670491</v>
+        <v>10.6654282228842</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.093150684931507</v>
       </c>
       <c r="D10" t="n">
-        <v>125046.6786128293</v>
+        <v>124539.5362482381</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08123772075345295</v>
+        <v>-0.0958308110981263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3774932122470232</v>
+        <v>0.4280735799053507</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.532599856138525</v>
+        <v>-1.884474311310691</v>
       </c>
       <c r="H10" t="n">
-        <v>7.711485147016266</v>
+        <v>9.768235697739948</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.33972602739726</v>
       </c>
       <c r="D11" t="n">
-        <v>126581.2876446974</v>
+        <v>126539.1800181963</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1543469754425714</v>
+        <v>-0.169981061677895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6210817546727313</v>
+        <v>0.7361749700893891</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.987112181339311</v>
+        <v>-2.564224769720463</v>
       </c>
       <c r="H11" t="n">
-        <v>7.786249543727244</v>
+        <v>12.42327081754483</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -942,19 +942,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D14" t="n">
-        <v>116793.6500943039</v>
+        <v>116792.8286770761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1168449653546022</v>
+        <v>0.1167721660652652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.113257204949438</v>
+        <v>0.1133600116321851</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3097260248104146</v>
+        <v>-0.3128662589603944</v>
       </c>
       <c r="H14" t="n">
-        <v>5.646190787623574</v>
+        <v>5.654085880062441</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4066391886530542</v>
@@ -984,19 +984,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D15" t="n">
-        <v>116840.9081372219</v>
+        <v>116839.2840796073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1060368617455658</v>
+        <v>0.1059050861407755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1233265714477411</v>
+        <v>0.1235509118824574</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06379278620818073</v>
+        <v>-0.07201929273239523</v>
       </c>
       <c r="H15" t="n">
-        <v>7.59132668703202</v>
+        <v>7.611158043261241</v>
       </c>
       <c r="I15" t="n">
         <v>-0.4372884950901768</v>
@@ -1068,19 +1068,19 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="D17" t="n">
-        <v>117456.8786145969</v>
+        <v>117628.1019040164</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08042706017081008</v>
+        <v>0.09150261896082844</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1501266721640661</v>
+        <v>0.1068964240361746</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.219972717662498</v>
+        <v>-0.2448844007750582</v>
       </c>
       <c r="H17" t="n">
-        <v>19.79321383901967</v>
+        <v>5.095459527522543</v>
       </c>
       <c r="I17" t="n">
         <v>-0.7069195875716421</v>
@@ -1110,19 +1110,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D18" t="n">
-        <v>117523.3536295827</v>
+        <v>117664.1911717433</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05936913617542375</v>
+        <v>0.06778743546482378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1713918985599435</v>
+        <v>0.1338276161296763</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.016414292434636</v>
+        <v>-0.05651437813418732</v>
       </c>
       <c r="H18" t="n">
-        <v>22.22244899502702</v>
+        <v>5.723602935046212</v>
       </c>
       <c r="I18" t="n">
         <v>-0.6067089621107076</v>
@@ -1152,19 +1152,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D19" t="n">
-        <v>117571.6129769229</v>
+        <v>117677.0956656522</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04861909929879441</v>
+        <v>0.05365971831452972</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1557666814912989</v>
+        <v>0.1384872011011651</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.259005924047899</v>
+        <v>-0.368392055979987</v>
       </c>
       <c r="H19" t="n">
-        <v>14.09090132904606</v>
+        <v>6.909798936527114</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1186,19 +1186,19 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="D20" t="n">
-        <v>118726.3422614358</v>
+        <v>118695.9430765598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06192508559418698</v>
+        <v>0.06142500222440995</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1384343476750854</v>
+        <v>0.137386212883784</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2511106905916192</v>
+        <v>-0.2957987716406761</v>
       </c>
       <c r="H20" t="n">
-        <v>5.983941737734368</v>
+        <v>5.8085666925921</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.68817956144695</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.4186732762014604</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1793370711930251</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1384341990378838</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.024353852996327</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1166,10 +1174,18 @@
       <c r="H19" t="n">
         <v>6.909798936527114</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.4313052269092854</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1894878785946094</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.08022041709349888</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.966346205921337</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -1216,10 +1216,18 @@
       <c r="H20" t="n">
         <v>5.8085666925921</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.3647414710054033</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2426200462448084</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2814819410217358</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.570540023702133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDQMOMENT_20250822.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>14.41872135162159</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.3261774413778852</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4961668977682696</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7648173613827539</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.206213021077398</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
